--- a/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育招生数.xlsx
+++ b/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育招生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,448 +528,428 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>128.0388</v>
+        <v>113.1938</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>148.4946</v>
+        <v>153.208</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>574.6897</v>
+        <v>711.6312</v>
       </c>
       <c r="H2" t="n">
-        <v>148.4681</v>
+        <v>153.208</v>
       </c>
       <c r="I2" t="n">
-        <v>84.02200000000001</v>
+        <v>94.7235</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3687</v>
+        <v>80.9462</v>
       </c>
       <c r="K2" t="n">
-        <v>7.3683</v>
+        <v>6.6274</v>
       </c>
       <c r="L2" t="n">
-        <v>69.12309999999999</v>
+        <v>75.4657</v>
       </c>
       <c r="M2" t="n">
-        <v>61.7548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0265</v>
-      </c>
+        <v>68.8383</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>209.4075</v>
+        <v>194.14</v>
       </c>
       <c r="P2" t="n">
-        <v>67.3049</v>
+        <v>64.15470000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.1477</v>
+        <v>146.7431</v>
       </c>
       <c r="R2" t="n">
-        <v>72.8428</v>
+        <v>82.58839999999999</v>
       </c>
       <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>113.1938</v>
+        <v>95.7407</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>153.208</v>
+        <v>153.6479</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>711.6312</v>
+        <v>813.3958</v>
       </c>
       <c r="H3" t="n">
-        <v>153.208</v>
+        <v>153.6479</v>
       </c>
       <c r="I3" t="n">
-        <v>94.7235</v>
+        <v>100.8252</v>
       </c>
       <c r="J3" t="n">
-        <v>80.9462</v>
+        <v>83.53700000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6274</v>
+        <v>5.675</v>
       </c>
       <c r="L3" t="n">
-        <v>75.4657</v>
+        <v>74.6028</v>
       </c>
       <c r="M3" t="n">
-        <v>68.8383</v>
+        <v>68.9278</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>194.14</v>
+        <v>179.2777</v>
       </c>
       <c r="P3" t="n">
-        <v>64.15470000000001</v>
+        <v>65.4101</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.7431</v>
+        <v>153.7292</v>
       </c>
       <c r="R3" t="n">
-        <v>82.58839999999999</v>
+        <v>88.31910000000001</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>95.7407</v>
+        <v>83.7547</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>153.6479</v>
+        <v>157.8051</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>813.3958</v>
+        <v>865.6223</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6479</v>
+        <v>157.8051</v>
       </c>
       <c r="I4" t="n">
-        <v>100.8252</v>
+        <v>104.4393</v>
       </c>
       <c r="J4" t="n">
-        <v>83.53700000000001</v>
+        <v>82.1302</v>
       </c>
       <c r="K4" t="n">
-        <v>5.675</v>
+        <v>5.3955</v>
       </c>
       <c r="L4" t="n">
-        <v>74.6028</v>
+        <v>75.6927</v>
       </c>
       <c r="M4" t="n">
-        <v>68.9278</v>
+        <v>70.2972</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>179.2777</v>
+        <v>165.8849</v>
       </c>
       <c r="P4" t="n">
-        <v>65.4101</v>
+        <v>65.7499</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.7292</v>
+        <v>160.2828</v>
       </c>
       <c r="R4" t="n">
-        <v>88.31910000000001</v>
+        <v>94.51739999999999</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>83.7547</v>
+        <v>73.1593</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>157.8051</v>
+        <v>162.1113</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>865.6223</v>
+        <v>907.9575</v>
       </c>
       <c r="H5" t="n">
-        <v>157.8051</v>
+        <v>162.1113</v>
       </c>
       <c r="I5" t="n">
-        <v>104.4393</v>
+        <v>111.2846</v>
       </c>
       <c r="J5" t="n">
-        <v>82.1302</v>
+        <v>79.8192</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3955</v>
+        <v>4.7892</v>
       </c>
       <c r="L5" t="n">
-        <v>75.6927</v>
+        <v>68.8917</v>
       </c>
       <c r="M5" t="n">
-        <v>70.2972</v>
+        <v>64.10250000000001</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>165.8849</v>
+        <v>152.9785</v>
       </c>
       <c r="P5" t="n">
-        <v>65.7499</v>
+        <v>68.0307</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.2828</v>
+        <v>160.1879</v>
       </c>
       <c r="R5" t="n">
-        <v>94.51739999999999</v>
+        <v>92.1391</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>73.1593</v>
+        <v>71.9522</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>162.1113</v>
+        <v>167.7377</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>907.9575</v>
+        <v>953.6605</v>
       </c>
       <c r="H6" t="n">
-        <v>162.1113</v>
+        <v>167.7353</v>
       </c>
       <c r="I6" t="n">
-        <v>111.2846</v>
+        <v>114.8019</v>
       </c>
       <c r="J6" t="n">
-        <v>79.8192</v>
+        <v>82.7299</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7892</v>
+        <v>4.5583</v>
       </c>
       <c r="L6" t="n">
-        <v>68.8917</v>
+        <v>65.1237</v>
       </c>
       <c r="M6" t="n">
-        <v>64.10250000000001</v>
+        <v>60.5654</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>152.9785</v>
+        <v>154.6821</v>
       </c>
       <c r="P6" t="n">
-        <v>68.0307</v>
+        <v>80.16970000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.1879</v>
+        <v>172.9617</v>
       </c>
       <c r="R6" t="n">
-        <v>92.1391</v>
+        <v>92.77500000000001</v>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>71.9522</v>
+        <v>70.9344</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>167.7377</v>
+        <v>170.7264</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>953.6605</v>
+        <v>998.189</v>
       </c>
       <c r="H7" t="n">
-        <v>167.7353</v>
+        <v>170.7261</v>
       </c>
       <c r="I7" t="n">
-        <v>114.8019</v>
+        <v>124.3553</v>
       </c>
       <c r="J7" t="n">
-        <v>82.7299</v>
+        <v>94.5055</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5583</v>
+        <v>3.7318</v>
       </c>
       <c r="L7" t="n">
-        <v>65.1237</v>
+        <v>63.2935</v>
       </c>
       <c r="M7" t="n">
-        <v>60.5654</v>
+        <v>59.5617</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>154.6821</v>
+        <v>165.4399</v>
       </c>
       <c r="P7" t="n">
-        <v>80.16970000000001</v>
+        <v>81.2912</v>
       </c>
       <c r="Q7" t="n">
-        <v>172.9617</v>
+        <v>177.9676</v>
       </c>
       <c r="R7" t="n">
-        <v>92.77500000000001</v>
+        <v>96.6489</v>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>70.9344</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>170.7264</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>998.189</v>
-      </c>
-      <c r="H8" t="n">
-        <v>170.7261</v>
-      </c>
+        <v>965.078</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>124.3553</v>
+        <v>127.7577</v>
       </c>
       <c r="J8" t="n">
-        <v>94.5055</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.7318</v>
-      </c>
-      <c r="L8" t="n">
-        <v>63.2935</v>
-      </c>
-      <c r="M8" t="n">
-        <v>59.5617</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>165.4399</v>
-      </c>
-      <c r="P8" t="n">
-        <v>81.2912</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>177.9676</v>
-      </c>
-      <c r="R8" t="n">
-        <v>96.6489</v>
-      </c>
+        <v>102.8923</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>78.68089999999999</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>209.0925</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>965.078</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>999.3192</v>
+      </c>
+      <c r="H9" t="n">
+        <v>209.0899</v>
+      </c>
       <c r="I9" t="n">
-        <v>127.7577</v>
+        <v>137.6977</v>
       </c>
       <c r="J9" t="n">
-        <v>102.8923</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>0.0016</v>
-      </c>
+        <v>111.4094</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.4619</v>
+      </c>
+      <c r="L9" t="n">
+        <v>61.8476</v>
+      </c>
+      <c r="M9" t="n">
+        <v>58.3857</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>82.108</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>185.3485</v>
+      </c>
+      <c r="R9" t="n">
+        <v>103.1658</v>
+      </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>78.68089999999999</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>209.0925</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>999.3192</v>
-      </c>
-      <c r="H10" t="n">
-        <v>209.0899</v>
-      </c>
+        <v>997.2628</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>137.6977</v>
+        <v>155.3073</v>
       </c>
       <c r="J10" t="n">
-        <v>111.4094</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.4619</v>
-      </c>
-      <c r="L10" t="n">
-        <v>61.8476</v>
-      </c>
-      <c r="M10" t="n">
-        <v>58.3857</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>116.9477</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>82.108</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>185.3485</v>
-      </c>
-      <c r="R10" t="n">
-        <v>103.1658</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -978,20 +958,20 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>997.2628</v>
+        <v>904.6843</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>155.3073</v>
+        <v>159.0448</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9477</v>
+        <v>135.8581</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.0035</v>
+        <v>0.0008</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1002,7 +982,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1011,20 +991,20 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>904.6843</v>
+        <v>819.3205</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>159.0448</v>
+        <v>145.1975</v>
       </c>
       <c r="J12" t="n">
-        <v>135.8581</v>
+        <v>153.393</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1035,31 +1015,35 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>105.4672</v>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>243.4498</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>819.3205</v>
+        <v>699.2403</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>145.1975</v>
+        <v>135.6675</v>
       </c>
       <c r="J13" t="n">
-        <v>153.393</v>
+        <v>168.9282</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>274.3954</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
